--- a/outputs-GTDB-r202/f__Clostridiaceae.xlsx
+++ b/outputs-GTDB-r202/f__Clostridiaceae.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>g__Proteiniclasticum</t>
+          <t>g__Proteiniclasticum(reject)</t>
         </is>
       </c>
     </row>
